--- a/配置文档/属性相关/属性基础表.xlsx
+++ b/配置文档/属性相关/属性基础表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20430" windowHeight="6465"/>
+    <workbookView windowWidth="18345" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_AttributeBase_属性表" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="234">
   <si>
     <t>该表用于保存属性基础数据
 可新增！不建议直接删除！
@@ -183,16 +183,22 @@
     <t>实体自身的移动速度</t>
   </si>
   <si>
+    <t>移动加速度</t>
+  </si>
+  <si>
+    <t>实体自身的移动加速度</t>
+  </si>
+  <si>
     <t>旋转速度</t>
   </si>
   <si>
     <t>实体自身的旋转速度</t>
   </si>
   <si>
-    <t>炮塔旋转速度上限</t>
-  </si>
-  <si>
-    <t>每秒最多转弯多少度，填度数，360度是一圈，填个360就是每秒转一圈</t>
+    <t>炮塔旋转速度</t>
+  </si>
+  <si>
+    <t>每秒转弯多少度，填度数，360度是一圈，填个360就是每秒转一圈</t>
   </si>
   <si>
     <t>炮塔旋转加速度</t>
@@ -403,27 +409,6 @@
   </si>
   <si>
     <t>在工作范围内给其他建筑减少一定比例的建筑重建时间</t>
-  </si>
-  <si>
-    <t>----攻击效果属性列表----</t>
-  </si>
-  <si>
-    <t>燃烧耐性</t>
-  </si>
-  <si>
-    <t>燃烧值超过燃烧耐性时开始燃烧</t>
-  </si>
-  <si>
-    <t>燃烧值</t>
-  </si>
-  <si>
-    <t>冰冻耐性</t>
-  </si>
-  <si>
-    <t>冰冻值超过冰冻耐性时开始冰冻</t>
-  </si>
-  <si>
-    <t>冰冻值</t>
   </si>
   <si>
     <t>该表用于配置计算逻辑
@@ -1900,10 +1885,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -2290,7 +2275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" s="20" customFormat="1" spans="1:8">
       <c r="A20" s="19">
         <v>1</v>
       </c>
@@ -2314,17 +2299,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" s="20" customFormat="1" ht="28.5" spans="1:8">
-      <c r="A22" s="18">
+    <row r="22" spans="1:8">
+      <c r="A22" s="19">
         <v>1</v>
       </c>
       <c r="B22" s="18">
-        <v>51</v>
-      </c>
-      <c r="C22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="18">
@@ -2338,56 +2323,73 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" s="20" customFormat="1" ht="28.5" spans="1:8">
-      <c r="A23" s="18">
-        <v>1</v>
-      </c>
-      <c r="B23" s="18">
+    <row r="23" s="20" customFormat="1" spans="1:8">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" s="20" customFormat="1" spans="1:8">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" s="20" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A25" s="18">
+        <v>1</v>
+      </c>
+      <c r="B25" s="18">
+        <v>51</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" s="20" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A26" s="18">
+        <v>1</v>
+      </c>
+      <c r="B26" s="18">
         <v>52</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" s="19" customFormat="1" spans="2:8">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" s="19" customFormat="1" spans="2:8">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-    </row>
-    <row r="26" s="19" customFormat="1" spans="2:8">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+      <c r="C26" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" s="19" customFormat="1" spans="2:8">
       <c r="B27" s="32"/>
@@ -2461,87 +2463,42 @@
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
     </row>
-    <row r="35" s="21" customFormat="1" spans="2:8">
-      <c r="B35" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="18">
-        <v>0</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" ht="42.75" spans="1:8">
-      <c r="A36" s="18">
-        <v>1</v>
-      </c>
-      <c r="B36" s="18">
-        <v>101</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="18" t="s">
+    <row r="35" s="19" customFormat="1" spans="2:8">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+    </row>
+    <row r="36" s="19" customFormat="1" spans="2:8">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" s="19" customFormat="1" spans="2:8">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+    </row>
+    <row r="38" s="21" customFormat="1" spans="2:8">
+      <c r="B38" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="18">
-        <v>0</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" ht="71.25" spans="1:8">
-      <c r="A37" s="18">
-        <v>1</v>
-      </c>
-      <c r="B37" s="18">
-        <v>102</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="18">
-        <v>0</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" ht="42.75" spans="1:8">
-      <c r="A38" s="18">
-        <v>1</v>
-      </c>
-      <c r="B38" s="18">
-        <v>103</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>55</v>
+      <c r="C38" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="E38" s="18">
         <v>0</v>
@@ -2549,9 +2506,9 @@
       <c r="F38" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19" t="s">
-        <v>23</v>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" ht="42.75" spans="1:8">
@@ -2559,13 +2516,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="18">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E39" s="18">
         <v>0</v>
@@ -2578,15 +2535,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" s="21" customFormat="1" spans="2:8">
-      <c r="B40" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>49</v>
+    <row r="40" ht="71.25" spans="1:8">
+      <c r="A40" s="18">
+        <v>1</v>
+      </c>
+      <c r="B40" s="18">
+        <v>102</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="E40" s="18">
         <v>0</v>
@@ -2594,33 +2554,47 @@
       <c r="F40" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" ht="42.75" spans="1:8">
+      <c r="A41" s="18">
+        <v>1</v>
+      </c>
+      <c r="B41" s="18">
+        <v>103</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="E41" s="18">
         <v>0</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-    </row>
-    <row r="42" s="22" customFormat="1" spans="2:8">
-      <c r="B42" s="35" t="s">
+      <c r="G41" s="19"/>
+      <c r="H41" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" ht="42.75" spans="1:8">
+      <c r="A42" s="18">
+        <v>1</v>
+      </c>
+      <c r="B42" s="18">
+        <v>104</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>58</v>
+      <c r="D42" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="E42" s="18">
         <v>0</v>
@@ -2628,95 +2602,78 @@
       <c r="F42" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" ht="28.5" spans="1:8">
-      <c r="A43" s="18">
-        <v>1</v>
-      </c>
-      <c r="B43" s="18">
+      <c r="G42" s="19"/>
+      <c r="H42" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" s="21" customFormat="1" spans="2:8">
+      <c r="B43" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+    </row>
+    <row r="45" s="22" customFormat="1" spans="2:8">
+      <c r="B45" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="18">
+        <v>0</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" ht="28.5" spans="1:8">
+      <c r="A46" s="18">
+        <v>1</v>
+      </c>
+      <c r="B46" s="18">
         <v>201</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="18">
-        <v>0</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="18">
-        <v>1</v>
-      </c>
-      <c r="B44" s="18">
-        <v>202</v>
-      </c>
-      <c r="C44" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D46" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="E44" s="18">
-        <v>0</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" ht="42.75" spans="1:8">
-      <c r="A45" s="18">
-        <v>1</v>
-      </c>
-      <c r="B45" s="18">
-        <v>203</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="18">
-        <v>0</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" s="20" customFormat="1" ht="42.75" spans="1:8">
-      <c r="A46" s="18">
-        <v>1</v>
-      </c>
-      <c r="B46" s="18">
-        <v>204</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="E46" s="18">
         <v>0</v>
@@ -2729,15 +2686,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" s="22" customFormat="1" spans="2:8">
-      <c r="B47" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>58</v>
+    <row r="47" spans="1:8">
+      <c r="A47" s="18">
+        <v>1</v>
+      </c>
+      <c r="B47" s="18">
+        <v>202</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="E47" s="18">
         <v>0</v>
@@ -2745,12 +2705,24 @@
       <c r="F47" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="5:8">
+      <c r="G47" s="19"/>
+      <c r="H47" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" ht="42.75" spans="1:8">
+      <c r="A48" s="18">
+        <v>1</v>
+      </c>
+      <c r="B48" s="18">
+        <v>203</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="E48" s="18">
         <v>0</v>
       </c>
@@ -2758,17 +2730,22 @@
         <v>23</v>
       </c>
       <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-    </row>
-    <row r="49" s="23" customFormat="1" spans="2:8">
-      <c r="B49" s="36" t="s">
+      <c r="H48" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" s="20" customFormat="1" ht="42.75" spans="1:8">
+      <c r="A49" s="18">
+        <v>1</v>
+      </c>
+      <c r="B49" s="18">
+        <v>204</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>67</v>
+      <c r="D49" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E49" s="18">
         <v>0</v>
@@ -2776,71 +2753,51 @@
       <c r="F49" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="18">
-        <v>1</v>
-      </c>
-      <c r="B50" s="18">
-        <v>301</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="18" t="s">
+      <c r="G49" s="19"/>
+      <c r="H49" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" s="22" customFormat="1" spans="2:8">
+      <c r="B50" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="18">
+        <v>0</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8">
+      <c r="E51" s="18">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+    </row>
+    <row r="52" s="23" customFormat="1" spans="2:8">
+      <c r="B52" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="18">
-        <v>0</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="18">
-        <v>1</v>
-      </c>
-      <c r="B51" s="18">
-        <v>302</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="18">
-        <v>0</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="18">
-        <v>1</v>
-      </c>
-      <c r="B52" s="18">
-        <v>303</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>73</v>
+      <c r="C52" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="E52" s="18">
         <v>0</v>
@@ -2848,9 +2805,9 @@
       <c r="F52" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19" t="s">
-        <v>23</v>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2858,13 +2815,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="18">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E53" s="18">
         <v>0</v>
@@ -2877,18 +2834,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" ht="57" spans="1:8">
+    <row r="54" spans="1:8">
       <c r="A54" s="18">
         <v>1</v>
       </c>
       <c r="B54" s="18">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E54" s="18">
         <v>0</v>
@@ -2906,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="18">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>75</v>
@@ -2930,13 +2887,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="18">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E56" s="18">
         <v>0</v>
@@ -2949,18 +2906,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" ht="57" spans="1:8">
       <c r="A57" s="18">
         <v>1</v>
       </c>
       <c r="B57" s="18">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E57" s="18">
         <v>0</v>
@@ -2973,18 +2930,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" ht="28.5" spans="1:8">
+    <row r="58" spans="1:8">
       <c r="A58" s="18">
         <v>1</v>
       </c>
       <c r="B58" s="18">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E58" s="18">
         <v>0</v>
@@ -2997,18 +2954,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" ht="28.5" spans="1:8">
+    <row r="59" spans="1:8">
       <c r="A59" s="18">
         <v>1</v>
       </c>
       <c r="B59" s="18">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E59" s="18">
         <v>0</v>
@@ -3021,18 +2978,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" ht="28.5" spans="1:8">
+    <row r="60" spans="1:8">
       <c r="A60" s="18">
         <v>1</v>
       </c>
       <c r="B60" s="18">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E60" s="18">
         <v>0</v>
@@ -3045,18 +3002,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" s="20" customFormat="1" ht="57" spans="1:8">
+    <row r="61" ht="28.5" spans="1:8">
       <c r="A61" s="18">
         <v>1</v>
       </c>
       <c r="B61" s="18">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E61" s="18">
         <v>0</v>
@@ -3069,18 +3026,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" s="20" customFormat="1" ht="28.5" spans="1:8">
+    <row r="62" ht="28.5" spans="1:8">
       <c r="A62" s="18">
         <v>1</v>
       </c>
       <c r="B62" s="18">
-        <v>313</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>91</v>
+        <v>310</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E62" s="18">
         <v>0</v>
@@ -3093,18 +3050,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" s="20" customFormat="1" ht="28.5" spans="1:8">
+    <row r="63" ht="28.5" spans="1:8">
       <c r="A63" s="18">
         <v>1</v>
       </c>
       <c r="B63" s="18">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E63" s="18">
         <v>0</v>
@@ -3117,15 +3074,66 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" s="23" customFormat="1" spans="2:8">
-      <c r="B66" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="36" t="s">
-        <v>67</v>
+    <row r="64" s="20" customFormat="1" ht="57" spans="1:8">
+      <c r="A64" s="18">
+        <v>1</v>
+      </c>
+      <c r="B64" s="18">
+        <v>312</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="18">
+        <v>0</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" s="20" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A65" s="18">
+        <v>1</v>
+      </c>
+      <c r="B65" s="18">
+        <v>313</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="18">
+        <v>0</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" s="20" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A66" s="18">
+        <v>1</v>
+      </c>
+      <c r="B66" s="18">
+        <v>314</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="E66" s="18">
         <v>0</v>
@@ -3133,222 +3141,171 @@
       <c r="F66" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6">
-      <c r="E67" s="18">
-        <v>0</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" s="24" customFormat="1" spans="2:8">
-      <c r="B68" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E68" s="18">
-        <v>0</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" ht="28.5" spans="1:8">
-      <c r="A69" s="38">
-        <v>1</v>
-      </c>
-      <c r="B69" s="18">
+      <c r="G66" s="19"/>
+      <c r="H66" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" s="23" customFormat="1" spans="2:8">
+      <c r="B69" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="18">
+        <v>0</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6">
+      <c r="E70" s="18">
+        <v>0</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" s="24" customFormat="1" spans="2:8">
+      <c r="B71" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="18">
+        <v>0</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" ht="28.5" spans="1:8">
+      <c r="A72" s="38">
+        <v>1</v>
+      </c>
+      <c r="B72" s="18">
         <v>401</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="18" t="s">
+      <c r="C72" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="18">
+        <v>0</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="38">
+        <v>1</v>
+      </c>
+      <c r="B73" s="18">
+        <v>402</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="18">
+        <v>0</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="38">
+        <v>1</v>
+      </c>
+      <c r="B74" s="18">
+        <v>403</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="18">
+        <v>0</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" s="24" customFormat="1" spans="2:8">
+      <c r="B75" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E69" s="18">
-        <v>0</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="38">
-        <v>1</v>
-      </c>
-      <c r="B70" s="18">
-        <v>402</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E70" s="18">
-        <v>0</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="38">
-        <v>1</v>
-      </c>
-      <c r="B71" s="18">
-        <v>403</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E71" s="18">
-        <v>0</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" s="24" customFormat="1" spans="2:8">
-      <c r="B72" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D72" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" s="18">
-        <v>0</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="5:6">
-      <c r="E73" s="18">
-        <v>0</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" s="25" customFormat="1" spans="2:8">
-      <c r="B74" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" s="18">
-        <v>0</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="18">
-        <v>1</v>
-      </c>
-      <c r="B75" s="18">
-        <v>501</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D75" s="18" t="s">
+      <c r="C75" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" s="18">
+        <v>0</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6">
+      <c r="E76" s="18">
+        <v>0</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" s="25" customFormat="1" spans="2:8">
+      <c r="B77" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="18">
-        <v>0</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="18">
-        <v>1</v>
-      </c>
-      <c r="B76" s="18">
-        <v>502</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E76" s="18">
-        <v>0</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="18">
-        <v>1</v>
-      </c>
-      <c r="B77" s="18">
-        <v>503</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>108</v>
+      <c r="C77" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>104</v>
       </c>
       <c r="E77" s="18">
         <v>0</v>
@@ -3356,9 +3313,9 @@
       <c r="F77" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19" t="s">
-        <v>23</v>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3366,13 +3323,13 @@
         <v>1</v>
       </c>
       <c r="B78" s="18">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E78" s="18">
         <v>0</v>
@@ -3385,18 +3342,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" ht="28.5" spans="1:8">
+    <row r="79" spans="1:8">
       <c r="A79" s="18">
         <v>1</v>
       </c>
       <c r="B79" s="18">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E79" s="18">
         <v>0</v>
@@ -3409,18 +3366,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" ht="28.5" spans="1:8">
+    <row r="80" spans="1:8">
       <c r="A80" s="18">
         <v>1</v>
       </c>
       <c r="B80" s="18">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E80" s="18">
         <v>0</v>
@@ -3433,18 +3390,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" ht="28.5" spans="1:8">
+    <row r="81" spans="1:8">
       <c r="A81" s="18">
         <v>1</v>
       </c>
       <c r="B81" s="18">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E81" s="18">
         <v>0</v>
@@ -3457,15 +3414,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" s="25" customFormat="1" spans="2:8">
-      <c r="B82" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C82" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D82" s="39" t="s">
-        <v>102</v>
+    <row r="82" ht="28.5" spans="1:8">
+      <c r="A82" s="18">
+        <v>1</v>
+      </c>
+      <c r="B82" s="18">
+        <v>505</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="E82" s="18">
         <v>0</v>
@@ -3473,28 +3433,47 @@
       <c r="F82" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="5:6">
+      <c r="G82" s="19"/>
+      <c r="H82" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" ht="28.5" spans="1:8">
+      <c r="A83" s="18">
+        <v>1</v>
+      </c>
+      <c r="B83" s="18">
+        <v>506</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>116</v>
+      </c>
       <c r="E83" s="18">
         <v>0</v>
       </c>
       <c r="F83" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="84" s="26" customFormat="1" spans="2:8">
-      <c r="B84" s="40" t="s">
+      <c r="G83" s="19"/>
+      <c r="H83" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" ht="28.5" spans="1:8">
+      <c r="A84" s="18">
+        <v>1</v>
+      </c>
+      <c r="B84" s="18">
+        <v>507</v>
+      </c>
+      <c r="C84" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C84" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="D84" s="40" t="s">
-        <v>117</v>
+      <c r="D84" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="E84" s="18">
         <v>0</v>
@@ -3502,23 +3481,20 @@
       <c r="F84" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="18">
-        <v>1</v>
-      </c>
-      <c r="B85" s="18">
-        <v>601</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>119</v>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" s="25" customFormat="1" spans="2:8">
+      <c r="B85" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>104</v>
       </c>
       <c r="E85" s="18">
         <v>0</v>
@@ -3526,77 +3502,43 @@
       <c r="F85" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="18">
-        <v>1</v>
-      </c>
-      <c r="B86" s="18">
-        <v>602</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" s="18"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6">
       <c r="E86" s="18">
         <v>0</v>
       </c>
       <c r="F86" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="18">
-        <v>1</v>
-      </c>
-      <c r="B87" s="18">
-        <v>603</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E87" s="18">
-        <v>0</v>
-      </c>
-      <c r="F87" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="18">
-        <v>1</v>
-      </c>
-      <c r="B88" s="18">
-        <v>604</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" s="18">
-        <v>0</v>
-      </c>
-      <c r="F88" s="18" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="87" s="26" customFormat="1" spans="2:8">
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+    </row>
+    <row r="88" spans="7:8">
       <c r="G88" s="19"/>
-      <c r="H88" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="H88" s="19"/>
+    </row>
+    <row r="89" spans="7:8">
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+    </row>
+    <row r="90" spans="7:8">
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+    </row>
+    <row r="91" spans="7:8">
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3614,8 +3556,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3631,22 +3573,22 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="96" customHeight="1" spans="1:6">
       <c r="A1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:6">
@@ -3674,19 +3616,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:6">
@@ -3741,19 +3683,19 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="114" customHeight="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:5">
@@ -3778,16 +3720,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:5">
@@ -3815,13 +3757,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3832,13 +3774,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3865,25 +3807,25 @@
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="75.8666666666667" customWidth="1"/>
+    <col min="4" max="4" width="79.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3891,16 +3833,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3908,16 +3850,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3928,13 +3870,13 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3942,16 +3884,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3959,16 +3901,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3980,10 +3922,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3991,16 +3933,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4008,16 +3950,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4028,13 +3970,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4042,16 +3984,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4059,16 +4001,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4076,13 +4018,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4090,10 +4032,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4101,10 +4043,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4112,10 +4054,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4123,10 +4065,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4134,10 +4076,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4145,10 +4087,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4156,10 +4098,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4167,10 +4109,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4178,10 +4120,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4189,10 +4131,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4200,10 +4142,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4211,10 +4153,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4222,16 +4164,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4239,16 +4181,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4256,16 +4198,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4273,16 +4215,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4290,13 +4232,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4304,16 +4246,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4321,16 +4263,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4341,13 +4283,13 @@
         <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4355,16 +4297,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4372,16 +4314,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4389,14 +4331,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4404,11 +4346,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4416,16 +4358,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/属性相关/属性基础表.xlsx
+++ b/配置文档/属性相关/属性基础表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_AttributeBase_属性表" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="247">
   <si>
     <t>该表用于保存属性基础数据
 可新增！不建议直接删除！
@@ -59,9 +59,8 @@
     <t>属性描述</t>
   </si>
   <si>
-    <t>属性显示类型
-0 属性不显示
-1 属性条</t>
+    <t>伤害削减优先级
+大于0的部分属于结构或者护盾</t>
   </si>
   <si>
     <t>属性显示颜色</t>
@@ -93,7 +92,7 @@
     <t>AttributeDescribe</t>
   </si>
   <si>
-    <t>ShowType</t>
+    <t>#Priority</t>
   </si>
   <si>
     <t>ShowColor</t>
@@ -132,34 +131,22 @@
     <t>（血没了就死了）</t>
   </si>
   <si>
-    <t>装甲值</t>
-  </si>
-  <si>
-    <t>打在结构上的伤害会先减去装甲值的数值，最少造成1点伤害</t>
-  </si>
-  <si>
-    <t>最低受到伤害</t>
-  </si>
-  <si>
-    <t>默认1</t>
-  </si>
-  <si>
     <t>装甲血量</t>
   </si>
   <si>
     <t>受到装甲伤害时减少，等比与装甲值</t>
   </si>
   <si>
+    <t>护盾</t>
+  </si>
+  <si>
+    <t>一个可以自然恢复的数值，优先与结构承受伤害，归零时添加护盾过载条，护盾可以承受超额伤害，即使当前的伤害远超护盾的数值，也将完全低效本次伤害</t>
+  </si>
+  <si>
     <t>装甲血量比例</t>
   </si>
   <si>
-    <t>装甲血量*装甲值=装甲血量比例，这是个固定值，不会改变，只要单位有装甲值，默认10点</t>
-  </si>
-  <si>
-    <t>护盾</t>
-  </si>
-  <si>
-    <t>一个可以自然恢复的数值，优先与结构承受伤害，归零时添加护盾过载条，护盾可以承受超额伤害，即使当前的伤害远超护盾的数值，也将完全低效本次伤害</t>
+    <t>装甲血量/装甲血量比例 = 装甲值，这是个固定值，不会改变，只要单位有装甲值，默认10点</t>
   </si>
   <si>
     <t>护盾结晶</t>
@@ -174,25 +161,52 @@
     <t>护盾被清零后重新转载的时间，随时间流逝减少，减少到0时将会重启整个护盾，其中包含所有护盾节</t>
   </si>
   <si>
+    <t>----抗性相关属性列表----</t>
+  </si>
+  <si>
+    <t>实弹抗性</t>
+  </si>
+  <si>
+    <t>对实弹伤害的抗性，实弹伤害乘以这个抗性</t>
+  </si>
+  <si>
+    <t>激光抗性</t>
+  </si>
+  <si>
+    <t>对激光伤害的抗性，激光伤害乘以这个抗性</t>
+  </si>
+  <si>
+    <t>爆炸抗性</t>
+  </si>
+  <si>
+    <t>对爆炸伤害的抗性，爆炸伤害乘以这个抗性</t>
+  </si>
+  <si>
+    <t>元素抗性</t>
+  </si>
+  <si>
+    <t>对元素伤害的抗性，元素伤害乘以这个抗性</t>
+  </si>
+  <si>
     <t>----移动相关属性列表----</t>
   </si>
   <si>
     <t>移动速度</t>
   </si>
   <si>
-    <t>实体自身的移动速度</t>
+    <t>实体自身的移动速度（每秒）</t>
   </si>
   <si>
     <t>移动加速度</t>
   </si>
   <si>
-    <t>实体自身的移动加速度</t>
+    <t>实体自身的移动加速度（每秒）</t>
   </si>
   <si>
     <t>旋转速度</t>
   </si>
   <si>
-    <t>实体自身的旋转速度</t>
+    <t>实体自身的旋转速度（每秒）</t>
   </si>
   <si>
     <t>炮塔旋转速度</t>
@@ -237,22 +251,46 @@
     <t>----采集属性列表----</t>
   </si>
   <si>
-    <t>资源数量</t>
-  </si>
-  <si>
-    <t>用于资源地块、残骸。采集建筑从资源地块中能够获取的所有资源</t>
-  </si>
-  <si>
-    <t>资源开采效率</t>
-  </si>
-  <si>
-    <t>每秒钟可以从资源地块中获取多少资源</t>
-  </si>
-  <si>
-    <t>资源拆解效率</t>
+    <t>资源开采效率-万能齿轮</t>
+  </si>
+  <si>
+    <t>每秒钟可以从资源地块中获取多少万能齿轮</t>
+  </si>
+  <si>
+    <t>资源开采效率-怨灵水晶</t>
+  </si>
+  <si>
+    <t>每秒钟可以从资源地块中获取多少怨灵水晶</t>
+  </si>
+  <si>
+    <t>资源开采效率-次元岛溶剂</t>
+  </si>
+  <si>
+    <t>每秒钟可以从资源地块中获取多少次元岛溶剂</t>
+  </si>
+  <si>
+    <t>资源数量-万能齿轮</t>
+  </si>
+  <si>
+    <t>用于残骸</t>
+  </si>
+  <si>
+    <t>资源数量-怨灵水晶</t>
+  </si>
+  <si>
+    <t>资源数量-次元岛溶剂</t>
+  </si>
+  <si>
+    <t>资源拆解效率-万能齿轮</t>
   </si>
   <si>
     <t>激光开采类建筑（如收解台），开采，回收周围资源地块，残骸的效率，每秒中可以获取多少资源</t>
+  </si>
+  <si>
+    <t>资源拆解效率-怨灵水晶</t>
+  </si>
+  <si>
+    <t>资源拆解效率-次元岛溶剂</t>
   </si>
   <si>
     <t>拆解范围</t>
@@ -1885,10 +1923,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1897,8 +1935,7 @@
     <col min="2" max="2" width="30.75" style="18" customWidth="1"/>
     <col min="3" max="3" width="41.25" style="18" customWidth="1"/>
     <col min="4" max="4" width="37.4916666666667" style="18" customWidth="1"/>
-    <col min="5" max="5" width="19.275" style="18" customWidth="1"/>
-    <col min="6" max="6" width="21.9666666666667" style="18" customWidth="1"/>
+    <col min="5" max="6" width="21.9666666666667" style="18" customWidth="1"/>
     <col min="7" max="7" width="48.375" style="18" customWidth="1"/>
     <col min="8" max="8" width="52.4916666666667" style="18" customWidth="1"/>
     <col min="9" max="16384" width="9" style="18"/>
@@ -1944,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="16">
         <v>2</v>
@@ -2016,9 +2053,7 @@
       <c r="D5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
+      <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
         <v>23</v>
       </c>
@@ -2041,7 +2076,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>23</v>
@@ -2050,7 +2085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="1" ht="28.5" spans="1:8">
+    <row r="7" s="18" customFormat="1" spans="1:8">
       <c r="A7" s="18">
         <v>1</v>
       </c>
@@ -2064,7 +2099,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>23</v>
@@ -2073,7 +2108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="1" spans="1:8">
+    <row r="8" s="18" customFormat="1" ht="57" spans="1:8">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -2087,7 +2122,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>23</v>
@@ -2096,53 +2131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" s="18" customFormat="1" spans="1:8">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="18">
-        <v>4</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" s="18" customFormat="1" ht="42.75" spans="1:8">
-      <c r="A10" s="18">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18">
-        <v>5</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" s="18" customFormat="1" ht="57" spans="1:8">
+    <row r="11" s="18" customFormat="1" ht="42.75" spans="1:8">
       <c r="A11" s="18">
         <v>1</v>
       </c>
@@ -2150,13 +2139,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>23</v>
@@ -2173,14 +2159,12 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
         <v>23</v>
       </c>
@@ -2197,13 +2181,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>23</v>
@@ -2213,152 +2194,196 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" spans="2:8">
-      <c r="B16" s="31" t="s">
+    <row r="14" s="17" customFormat="1" spans="2:8">
+      <c r="B14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" s="18" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A16" s="18">
+        <v>1</v>
+      </c>
+      <c r="B16" s="18">
+        <v>10</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="18">
+        <v>10</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" s="18" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A17" s="18">
+        <v>1</v>
+      </c>
+      <c r="B17" s="18">
+        <v>11</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="E17" s="18">
+        <v>10</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" s="18" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A18" s="18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="18">
+        <v>12</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="18">
+        <v>10</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" s="18" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A19" s="18">
+        <v>1</v>
+      </c>
+      <c r="B19" s="18">
+        <v>13</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="18">
+        <v>10</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" s="19" customFormat="1" spans="2:8">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" s="17" customFormat="1" spans="2:8">
+      <c r="B21" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="14" customHeight="1" spans="6:6">
+      <c r="F22" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" s="19" customFormat="1" spans="2:8">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="19">
+        <v>1</v>
+      </c>
+      <c r="B24" s="18">
         <v>40</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" ht="14" customHeight="1" spans="5:6">
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" s="19" customFormat="1" spans="2:8">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="18">
-        <v>40</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="C24" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" s="20" customFormat="1" spans="1:8">
+      <c r="A25" s="19">
+        <v>1</v>
+      </c>
+      <c r="B25" s="18">
         <v>41</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" s="20" customFormat="1" spans="1:8">
-      <c r="A20" s="19">
-        <v>1</v>
-      </c>
-      <c r="B20" s="18">
-        <v>41</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="19">
-        <v>1</v>
-      </c>
-      <c r="B22" s="18">
-        <v>42</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" s="20" customFormat="1" spans="1:8">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" s="20" customFormat="1" spans="1:8">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" s="20" customFormat="1" ht="28.5" spans="1:8">
-      <c r="A25" s="18">
-        <v>1</v>
-      </c>
-      <c r="B25" s="18">
-        <v>51</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
+      <c r="D25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
         <v>23</v>
       </c>
@@ -2367,21 +2392,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" s="20" customFormat="1" ht="28.5" spans="1:8">
-      <c r="A26" s="18">
+    <row r="26" spans="1:8">
+      <c r="A26" s="19">
         <v>1</v>
       </c>
       <c r="B26" s="18">
-        <v>52</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="18">
-        <v>0</v>
+      <c r="D26" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>23</v>
@@ -2391,57 +2413,74 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" s="19" customFormat="1" spans="2:8">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" s="19" customFormat="1" spans="2:8">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" s="19" customFormat="1" spans="2:8">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-    </row>
-    <row r="30" s="19" customFormat="1" spans="2:8">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-    </row>
-    <row r="31" s="19" customFormat="1" spans="2:8">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
+    <row r="28" s="20" customFormat="1" spans="1:8">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" s="20" customFormat="1" spans="1:8">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" s="20" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A30" s="18">
+        <v>1</v>
+      </c>
+      <c r="B30" s="18">
+        <v>51</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" s="20" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A31" s="18">
+        <v>1</v>
+      </c>
+      <c r="B31" s="18">
+        <v>52</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="32" s="19" customFormat="1" spans="2:8">
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
     </row>
@@ -2449,8 +2488,6 @@
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
     </row>
@@ -2458,8 +2495,6 @@
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
     </row>
@@ -2467,8 +2502,6 @@
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
     </row>
@@ -2476,8 +2509,6 @@
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
     </row>
@@ -2485,189 +2516,111 @@
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
     </row>
-    <row r="38" s="21" customFormat="1" spans="2:8">
-      <c r="B38" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="18">
-        <v>0</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" ht="42.75" spans="1:8">
-      <c r="A39" s="18">
-        <v>1</v>
-      </c>
-      <c r="B39" s="18">
-        <v>101</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="18">
-        <v>0</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" ht="71.25" spans="1:8">
-      <c r="A40" s="18">
-        <v>1</v>
-      </c>
-      <c r="B40" s="18">
-        <v>102</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="18">
-        <v>0</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" ht="42.75" spans="1:8">
-      <c r="A41" s="18">
-        <v>1</v>
-      </c>
-      <c r="B41" s="18">
-        <v>103</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="18">
-        <v>0</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" ht="42.75" spans="1:8">
-      <c r="A42" s="18">
-        <v>1</v>
-      </c>
-      <c r="B42" s="18">
-        <v>104</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="18">
-        <v>0</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19" t="s">
-        <v>23</v>
-      </c>
+    <row r="38" s="19" customFormat="1" spans="2:8">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+    </row>
+    <row r="39" s="19" customFormat="1" spans="2:8">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+    </row>
+    <row r="40" s="19" customFormat="1" spans="2:8">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" s="19" customFormat="1" spans="2:8">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+    </row>
+    <row r="42" s="19" customFormat="1" spans="2:8">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
     </row>
     <row r="43" s="21" customFormat="1" spans="2:8">
       <c r="B43" s="33" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="18">
-        <v>0</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E43" s="18"/>
       <c r="F43" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G43" s="33"/>
       <c r="H43" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="18">
-        <v>0</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" ht="42.75" spans="1:8">
+      <c r="A44" s="18">
+        <v>1</v>
+      </c>
+      <c r="B44" s="18">
+        <v>101</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-    </row>
-    <row r="45" s="22" customFormat="1" spans="2:8">
-      <c r="B45" s="35" t="s">
+      <c r="G44" s="19"/>
+      <c r="H44" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" ht="71.25" spans="1:8">
+      <c r="A45" s="18">
+        <v>1</v>
+      </c>
+      <c r="B45" s="18">
+        <v>102</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="18">
-        <v>0</v>
-      </c>
       <c r="F45" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" ht="28.5" spans="1:8">
+      <c r="G45" s="19"/>
+      <c r="H45" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" ht="42.75" spans="1:8">
       <c r="A46" s="18">
         <v>1</v>
       </c>
       <c r="B46" s="18">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>61</v>
@@ -2675,9 +2628,6 @@
       <c r="D46" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="18">
-        <v>0</v>
-      </c>
       <c r="F46" s="18" t="s">
         <v>23</v>
       </c>
@@ -2686,12 +2636,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" ht="42.75" spans="1:8">
       <c r="A47" s="18">
         <v>1</v>
       </c>
       <c r="B47" s="18">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>63</v>
@@ -2699,9 +2649,6 @@
       <c r="D47" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="18">
-        <v>0</v>
-      </c>
       <c r="F47" s="18" t="s">
         <v>23</v>
       </c>
@@ -2710,112 +2657,102 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" ht="42.75" spans="1:8">
-      <c r="A48" s="18">
-        <v>1</v>
-      </c>
-      <c r="B48" s="18">
-        <v>203</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="18">
-        <v>0</v>
-      </c>
+    <row r="48" s="21" customFormat="1" spans="2:8">
+      <c r="B48" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="18"/>
       <c r="F48" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" s="20" customFormat="1" ht="42.75" spans="1:8">
-      <c r="A49" s="18">
-        <v>1</v>
-      </c>
-      <c r="B49" s="18">
-        <v>204</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="18">
-        <v>0</v>
-      </c>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
       <c r="F49" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
     </row>
     <row r="50" s="22" customFormat="1" spans="2:8">
       <c r="B50" s="35" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="18">
-        <v>0</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E50" s="18"/>
       <c r="F50" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G50" s="35"/>
       <c r="H50" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="5:8">
-      <c r="E51" s="18">
-        <v>0</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" ht="28.5" spans="1:8">
+      <c r="A51" s="18">
+        <v>1</v>
+      </c>
+      <c r="B51" s="18">
+        <v>202</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-    </row>
-    <row r="52" s="23" customFormat="1" spans="2:8">
-      <c r="B52" s="36" t="s">
+      <c r="H51" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" ht="28.5" spans="1:8">
+      <c r="A52" s="18">
+        <v>1</v>
+      </c>
+      <c r="B52" s="18">
+        <v>203</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="18">
-        <v>0</v>
-      </c>
       <c r="F52" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="G52" s="19"/>
+      <c r="H52" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" ht="28.5" spans="1:8">
       <c r="A53" s="18">
         <v>1</v>
       </c>
       <c r="B53" s="18">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>70</v>
@@ -2823,14 +2760,11 @@
       <c r="D53" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="18">
-        <v>0</v>
-      </c>
       <c r="F53" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G53" s="19"/>
-      <c r="H53" s="19" t="s">
+      <c r="H53" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2839,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="18">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>72</v>
@@ -2847,14 +2781,11 @@
       <c r="D54" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="18">
-        <v>0</v>
-      </c>
       <c r="F54" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G54" s="19"/>
-      <c r="H54" s="19" t="s">
+      <c r="H54" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2863,16 +2794,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="18">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E55" s="18">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>23</v>
@@ -2887,16 +2815,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="18">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="18">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>23</v>
@@ -2906,21 +2831,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" ht="57" spans="1:8">
+    <row r="57" ht="42.75" spans="1:8">
       <c r="A57" s="18">
         <v>1</v>
       </c>
       <c r="B57" s="18">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="18">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>23</v>
@@ -2930,22 +2852,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" customFormat="1" ht="42.75" spans="1:8">
       <c r="A58" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" s="18">
-        <v>306</v>
+        <v>214</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="18">
-        <v>0</v>
-      </c>
+      <c r="E58" s="18"/>
       <c r="F58" s="18" t="s">
         <v>23</v>
       </c>
@@ -2954,22 +2874,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" customFormat="1" ht="42.75" spans="1:8">
       <c r="A59" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B59" s="18">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" s="18">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E59" s="18"/>
       <c r="F59" s="18" t="s">
         <v>23</v>
       </c>
@@ -2978,22 +2896,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" s="20" customFormat="1" ht="42.75" spans="1:8">
       <c r="A60" s="18">
         <v>1</v>
       </c>
       <c r="B60" s="18">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E60" s="18">
-        <v>0</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E60" s="18"/>
       <c r="F60" s="18" t="s">
         <v>23</v>
       </c>
@@ -3002,93 +2918,60 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" ht="28.5" spans="1:8">
-      <c r="A61" s="18">
-        <v>1</v>
-      </c>
-      <c r="B61" s="18">
-        <v>309</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="18">
-        <v>0</v>
-      </c>
+    <row r="61" s="22" customFormat="1" spans="2:8">
+      <c r="B61" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="18"/>
       <c r="F61" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" ht="28.5" spans="1:8">
-      <c r="A62" s="18">
-        <v>1</v>
-      </c>
-      <c r="B62" s="18">
-        <v>310</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" s="18">
-        <v>0</v>
-      </c>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="6:8">
       <c r="F62" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G62" s="19"/>
-      <c r="H62" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" ht="28.5" spans="1:8">
-      <c r="A63" s="18">
-        <v>1</v>
-      </c>
-      <c r="B63" s="18">
-        <v>311</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E63" s="18">
-        <v>0</v>
-      </c>
+      <c r="H62" s="19"/>
+    </row>
+    <row r="63" s="23" customFormat="1" spans="2:8">
+      <c r="B63" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="18"/>
       <c r="F63" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" s="20" customFormat="1" ht="57" spans="1:8">
-      <c r="A64" s="18">
-        <v>1</v>
-      </c>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
       <c r="B64" s="18">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" s="18">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F64" s="18" t="s">
         <v>23</v>
@@ -3098,21 +2981,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" s="20" customFormat="1" ht="28.5" spans="1:8">
-      <c r="A65" s="18">
-        <v>1</v>
-      </c>
+    <row r="65" spans="2:8">
       <c r="B65" s="18">
-        <v>313</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>93</v>
+        <v>302</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="18">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>23</v>
@@ -3122,21 +2999,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" s="20" customFormat="1" ht="28.5" spans="1:8">
-      <c r="A66" s="18">
-        <v>1</v>
-      </c>
+    <row r="66" spans="2:8">
       <c r="B66" s="18">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" s="18">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F66" s="18" t="s">
         <v>23</v>
@@ -3146,62 +3017,117 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" s="23" customFormat="1" spans="2:8">
-      <c r="B69" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="18">
-        <v>0</v>
+    <row r="67" spans="1:8">
+      <c r="A67" s="18">
+        <v>1</v>
+      </c>
+      <c r="B67" s="18">
+        <v>304</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" ht="57" spans="1:8">
+      <c r="A68" s="18">
+        <v>1</v>
+      </c>
+      <c r="B68" s="18">
+        <v>305</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="18">
+        <v>1</v>
+      </c>
+      <c r="B69" s="18">
+        <v>306</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="F69" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6">
-      <c r="E70" s="18">
-        <v>0</v>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="18">
+        <v>1</v>
+      </c>
+      <c r="B70" s="18">
+        <v>307</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="F70" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="71" s="24" customFormat="1" spans="2:8">
-      <c r="B71" s="37" t="s">
+      <c r="G70" s="19"/>
+      <c r="H70" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="18">
+        <v>1</v>
+      </c>
+      <c r="B71" s="18">
+        <v>308</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E71" s="18">
-        <v>0</v>
-      </c>
       <c r="F71" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37" t="s">
-        <v>97</v>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="28.5" spans="1:8">
-      <c r="A72" s="38">
+      <c r="A72" s="18">
         <v>1</v>
       </c>
       <c r="B72" s="18">
-        <v>401</v>
+        <v>309</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>98</v>
@@ -3209,9 +3135,6 @@
       <c r="D72" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E72" s="18">
-        <v>0</v>
-      </c>
       <c r="F72" s="18" t="s">
         <v>23</v>
       </c>
@@ -3220,12 +3143,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="38">
+    <row r="73" ht="28.5" spans="1:8">
+      <c r="A73" s="18">
         <v>1</v>
       </c>
       <c r="B73" s="18">
-        <v>402</v>
+        <v>310</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>100</v>
@@ -3233,9 +3156,6 @@
       <c r="D73" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E73" s="18">
-        <v>0</v>
-      </c>
       <c r="F73" s="18" t="s">
         <v>23</v>
       </c>
@@ -3244,12 +3164,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="38">
+    <row r="74" ht="28.5" spans="1:8">
+      <c r="A74" s="18">
         <v>1</v>
       </c>
       <c r="B74" s="18">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>102</v>
@@ -3257,9 +3177,6 @@
       <c r="D74" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E74" s="18">
-        <v>0</v>
-      </c>
       <c r="F74" s="18" t="s">
         <v>23</v>
       </c>
@@ -3268,191 +3185,127 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" s="24" customFormat="1" spans="2:8">
-      <c r="B75" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E75" s="18">
-        <v>0</v>
-      </c>
+    <row r="75" s="20" customFormat="1" ht="57" spans="1:8">
+      <c r="A75" s="18">
+        <v>1</v>
+      </c>
+      <c r="B75" s="18">
+        <v>312</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" s="18"/>
       <c r="F75" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="5:6">
-      <c r="E76" s="18">
-        <v>0</v>
-      </c>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" s="20" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A76" s="18">
+        <v>1</v>
+      </c>
+      <c r="B76" s="18">
+        <v>313</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="18"/>
       <c r="F76" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="77" s="25" customFormat="1" spans="2:8">
-      <c r="B77" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="18">
-        <v>0</v>
-      </c>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" s="20" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A77" s="18">
+        <v>1</v>
+      </c>
+      <c r="B77" s="18">
+        <v>314</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" s="18"/>
       <c r="F77" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="18">
-        <v>1</v>
-      </c>
-      <c r="B78" s="18">
-        <v>501</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E78" s="18">
-        <v>0</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="18">
-        <v>1</v>
-      </c>
-      <c r="B79" s="18">
-        <v>502</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E79" s="18">
-        <v>0</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="18">
-        <v>1</v>
-      </c>
-      <c r="B80" s="18">
-        <v>503</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" s="18" t="s">
+      <c r="G77" s="19"/>
+      <c r="H77" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" s="23" customFormat="1" spans="2:8">
+      <c r="B80" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" s="24" customFormat="1" spans="2:8">
+      <c r="B82" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E80" s="18">
-        <v>0</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="18">
-        <v>1</v>
-      </c>
-      <c r="B81" s="18">
-        <v>504</v>
-      </c>
-      <c r="C81" s="18" t="s">
+      <c r="C82" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" ht="28.5" spans="1:8">
+      <c r="A83" s="38">
+        <v>1</v>
+      </c>
+      <c r="B83" s="18">
+        <v>401</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D83" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="E81" s="18">
-        <v>0</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" ht="28.5" spans="1:8">
-      <c r="A82" s="18">
-        <v>1</v>
-      </c>
-      <c r="B82" s="18">
-        <v>505</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E82" s="18">
-        <v>0</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" ht="28.5" spans="1:8">
-      <c r="A83" s="18">
-        <v>1</v>
-      </c>
-      <c r="B83" s="18">
-        <v>506</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E83" s="18">
-        <v>0</v>
       </c>
       <c r="F83" s="18" t="s">
         <v>23</v>
@@ -3462,21 +3315,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" ht="28.5" spans="1:8">
-      <c r="A84" s="18">
+    <row r="84" spans="1:8">
+      <c r="A84" s="38">
         <v>1</v>
       </c>
       <c r="B84" s="18">
-        <v>507</v>
+        <v>402</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" s="18">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F84" s="18" t="s">
         <v>23</v>
@@ -3486,59 +3336,265 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" s="25" customFormat="1" spans="2:8">
-      <c r="B85" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C85" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D85" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E85" s="18">
-        <v>0</v>
+    <row r="85" spans="1:8">
+      <c r="A85" s="38">
+        <v>1</v>
+      </c>
+      <c r="B85" s="18">
+        <v>403</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="F85" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="5:6">
-      <c r="E86" s="18">
-        <v>0</v>
-      </c>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" s="24" customFormat="1" spans="2:8">
+      <c r="B86" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E86" s="18"/>
       <c r="F86" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="87" s="26" customFormat="1" spans="2:8">
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-    </row>
-    <row r="88" spans="7:8">
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-    </row>
-    <row r="89" spans="7:8">
+      <c r="G86" s="37"/>
+      <c r="H86" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" s="25" customFormat="1" spans="2:8">
+      <c r="B88" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="18">
+        <v>1</v>
+      </c>
+      <c r="B89" s="18">
+        <v>501</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-    </row>
-    <row r="90" spans="7:8">
+      <c r="H89" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="18">
+        <v>1</v>
+      </c>
+      <c r="B90" s="18">
+        <v>502</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-    </row>
-    <row r="91" spans="7:8">
+      <c r="H90" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="18">
+        <v>1</v>
+      </c>
+      <c r="B91" s="18">
+        <v>503</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
+      <c r="H91" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="18">
+        <v>1</v>
+      </c>
+      <c r="B92" s="18">
+        <v>504</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" ht="28.5" spans="1:8">
+      <c r="A93" s="18">
+        <v>1</v>
+      </c>
+      <c r="B93" s="18">
+        <v>505</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" ht="28.5" spans="1:8">
+      <c r="A94" s="18">
+        <v>1</v>
+      </c>
+      <c r="B94" s="18">
+        <v>506</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" ht="28.5" spans="1:8">
+      <c r="A95" s="18">
+        <v>1</v>
+      </c>
+      <c r="B95" s="18">
+        <v>507</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" s="25" customFormat="1" spans="2:8">
+      <c r="B96" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" s="26" customFormat="1" spans="2:8">
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+    </row>
+    <row r="99" spans="7:8">
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+    </row>
+    <row r="100" spans="7:8">
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+    </row>
+    <row r="101" spans="7:8">
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+    </row>
+    <row r="102" spans="7:8">
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3573,22 +3629,22 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="96" customHeight="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:6">
@@ -3616,19 +3672,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:6">
@@ -3683,19 +3739,19 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="114" customHeight="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:5">
@@ -3720,16 +3776,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:5">
@@ -3757,13 +3813,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3774,13 +3830,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3813,19 +3869,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3833,16 +3889,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3850,16 +3906,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3870,13 +3926,13 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3884,16 +3940,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3901,16 +3957,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3922,10 +3978,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3933,16 +3989,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3950,16 +4006,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3970,13 +4026,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3984,16 +4040,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4001,16 +4057,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4018,13 +4074,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4032,10 +4088,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4043,10 +4099,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4054,10 +4110,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4065,10 +4121,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4076,10 +4132,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4087,10 +4143,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4098,10 +4154,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4109,10 +4165,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4120,10 +4176,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4131,10 +4187,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4142,10 +4198,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4153,10 +4209,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4164,16 +4220,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4181,16 +4237,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4198,16 +4254,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4215,16 +4271,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4232,13 +4288,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4246,16 +4302,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4263,16 +4319,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4283,13 +4339,13 @@
         <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4297,16 +4353,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4314,16 +4370,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4331,14 +4387,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4346,11 +4402,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4358,16 +4414,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
